--- a/data/trans_camb/P19C09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Estudios-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.5026199768837</v>
+        <v>-3.739714571885221</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.751796523779312</v>
+        <v>-2.406001543810986</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.713034221143294</v>
+        <v>-3.671225098621457</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.553142325411447</v>
+        <v>-3.445208814434106</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.033146918693934</v>
+        <v>-3.166514183569946</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.426973350462141</v>
+        <v>-2.523166825038718</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.07169417547934442</v>
+        <v>-0.13205453962281</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.395657033613228</v>
+        <v>1.471613643030675</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.322331224288692</v>
+        <v>-0.1067262931574452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5332879304430861</v>
+        <v>0.7278885173359628</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.7031093924854522</v>
+        <v>-0.6223144390699619</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3430131051072737</v>
+        <v>0.422341435057913</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7525173813131484</v>
+        <v>-0.7825883527964032</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5923627098842061</v>
+        <v>-0.5494573293917779</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6184128873885718</v>
+        <v>-0.6172095867639277</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5846645218722937</v>
+        <v>-0.5862290518456368</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6151704704060189</v>
+        <v>-0.6136372065231953</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4975490541950856</v>
+        <v>-0.4894104785429959</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.05167349526272273</v>
+        <v>0.005524036689023897</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5149807821385115</v>
+        <v>0.5379591150522183</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.06933754341142789</v>
+        <v>-0.007742598204859641</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1609007619876016</v>
+        <v>0.1872914245776478</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1910820501119577</v>
+        <v>-0.1665397271553408</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08911247225565061</v>
+        <v>0.1244743946338312</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.29556387867891</v>
+        <v>-2.476214110844697</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8503991307838213</v>
+        <v>-0.8353094144720568</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2394041110755713</v>
+        <v>-0.2745079028457776</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8336505683114566</v>
+        <v>-0.9747913691957082</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9192230158237651</v>
+        <v>-0.9268904440260729</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.4298858115649631</v>
+        <v>-0.5333967311920029</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.1104793639640213</v>
+        <v>-0.2044360727142534</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.677160414101604</v>
+        <v>1.584685295664136</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.058953760457428</v>
+        <v>2.050169946074032</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.046937362468338</v>
+        <v>1.114166366195333</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5328151643284655</v>
+        <v>0.59842855044907</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.114691755233362</v>
+        <v>1.106978251514017</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7098540418153164</v>
+        <v>-0.7296497634977338</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2693606339032231</v>
+        <v>-0.2798493253633274</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1449447559558712</v>
+        <v>-0.15673429024235</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3836463112420281</v>
+        <v>-0.4239955287869345</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3637115665686796</v>
+        <v>-0.3575750678672616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1771129414767808</v>
+        <v>-0.2107851738036375</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.02667994687576226</v>
+        <v>-0.09123042455422548</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9116581296231665</v>
+        <v>0.8101317641600714</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.524532167249334</v>
+        <v>1.532033119168806</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8311110425110889</v>
+        <v>0.8632936796134714</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3128401316100177</v>
+        <v>0.3651929036990607</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6939595346102827</v>
+        <v>0.6472846204285253</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3888145258200971</v>
+        <v>-0.4582033201181608</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9071691884028291</v>
+        <v>-0.7566127028601077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.184954906342499</v>
+        <v>-2.791106364640713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.035439572533877</v>
+        <v>-2.279498213108209</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9474623869666428</v>
+        <v>-1.005961746840981</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.7047451753034871</v>
+        <v>-0.7355389557266935</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.897939249379704</v>
+        <v>4.003227129605429</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.945262618373194</v>
+        <v>2.999814283310622</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.037207116232138</v>
+        <v>2.273596776553963</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.569653275817423</v>
+        <v>3.154633439678891</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.467890663650004</v>
+        <v>2.330626820904699</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.480045079920115</v>
+        <v>2.650235286318425</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3099632467136836</v>
+        <v>-0.2506630258454093</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.450587997566247</v>
+        <v>-0.394678419516941</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6167760854289884</v>
+        <v>-0.5817102550086444</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4090166116219777</v>
+        <v>-0.4322895290209668</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3029041674540607</v>
+        <v>-0.3375725120776176</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2251317360737759</v>
+        <v>-0.2182771552163585</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.669299326871388</v>
+        <v>4.709208414251347</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.792901547276644</v>
+        <v>3.801992894202912</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9992456548221414</v>
+        <v>1.080162842855961</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.529233564409913</v>
+        <v>1.392972037766393</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.395533491561841</v>
+        <v>1.288815082707234</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.385464199327244</v>
+        <v>1.595428516063811</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.817033044225136</v>
+        <v>-1.741119403957035</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.7128040954750013</v>
+        <v>-0.6547392030277849</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.277026900407258</v>
+        <v>-1.273805097916385</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.347396523733172</v>
+        <v>-1.418200050179166</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.2314356267812</v>
+        <v>-1.252445282377022</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.8252930173130141</v>
+        <v>-0.7335094104453085</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.162770021213849</v>
+        <v>-0.05512082449689826</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.088322669083634</v>
+        <v>1.141102541407312</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6884331184061609</v>
+        <v>0.5648983675782554</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4559688079163483</v>
+        <v>0.3986257671806634</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.004638810918311129</v>
+        <v>0.002529785098261432</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5284940885138303</v>
+        <v>0.5664345839519792</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5708909638533199</v>
+        <v>-0.5625935062582774</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2439471536964585</v>
+        <v>-0.2218766436857221</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3591300507908008</v>
+        <v>-0.346615103002205</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3698666384680062</v>
+        <v>-0.3941433575108798</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3773179689023464</v>
+        <v>-0.3810966849130182</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2488644386131131</v>
+        <v>-0.2289522111519713</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.04813393273487195</v>
+        <v>-0.0193553595908328</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5227226934715618</v>
+        <v>0.5069255692928941</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2745223586877324</v>
+        <v>0.2149624298179361</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.182379520301403</v>
+        <v>0.171167306660929</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.000215997337962964</v>
+        <v>0.001819721219234692</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1994922004060397</v>
+        <v>0.2227366666893849</v>
       </c>
     </row>
     <row r="28">
